--- a/03-Databases/exerciceSQL/editeur_de_livre/Classeur1.xlsx
+++ b/03-Databases/exerciceSQL/editeur_de_livre/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bherault\Documents\GitHub\DWWM_2409_HB\03-Databases\exerciceSQL\editeur_de_livre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B727D090-DFC2-4808-A492-408C39644840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B8754-BEF9-4C11-8BC0-3FBE50ECCEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="1830" windowWidth="21210" windowHeight="11295" xr2:uid="{C4D40730-558E-49C5-9095-9A7778599BA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4D40730-558E-49C5-9095-9A7778599BA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>livres_titre</t>
   </si>
@@ -93,6 +93,48 @@
   </si>
   <si>
     <t>Colonne1</t>
+  </si>
+  <si>
+    <t>prime_nom</t>
+  </si>
+  <si>
+    <t>libraire_adresse_ complète</t>
+  </si>
+  <si>
+    <t>libraire_nom</t>
+  </si>
+  <si>
+    <t>libraire_id</t>
+  </si>
+  <si>
+    <t>auteur_prenom</t>
+  </si>
+  <si>
+    <t>auteur_nom</t>
+  </si>
+  <si>
+    <t>auteur_id</t>
+  </si>
+  <si>
+    <t>edition_exemplaire</t>
+  </si>
+  <si>
+    <t>edition_nombre</t>
+  </si>
+  <si>
+    <t>edition_id</t>
+  </si>
+  <si>
+    <t>livre_ id</t>
+  </si>
+  <si>
+    <t>livre_titre</t>
+  </si>
+  <si>
+    <t>livre_prix_de_vente</t>
+  </si>
+  <si>
+    <t>edition _datee</t>
   </si>
 </sst>
 </file>
@@ -115,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,14 +183,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,14 +214,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5278679-8C05-493A-B0D5-1EED6BE1D147}" name="Tableau1" displayName="Tableau1" ref="B2:T20" totalsRowShown="0">
-  <autoFilter ref="B2:T20" xr:uid="{C5278679-8C05-493A-B0D5-1EED6BE1D147}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5278679-8C05-493A-B0D5-1EED6BE1D147}" name="Tableau1" displayName="Tableau1" ref="B2:T21" totalsRowShown="0">
+  <autoFilter ref="B2:T21" xr:uid="{C5278679-8C05-493A-B0D5-1EED6BE1D147}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{092E5DE3-34F8-455A-B9A5-557B3E2BFA03}" name="Colonne1"/>
     <tableColumn id="2" xr3:uid="{D8B06A80-5C25-4189-8906-F33F2FC1BD89}" name="livres_ id"/>
     <tableColumn id="3" xr3:uid="{3DAC0DCB-7159-4652-A787-9F5103FA3AB3}" name="livres_titre"/>
     <tableColumn id="4" xr3:uid="{C71F6C44-AE0C-49C2-BDCD-4B50716C8E88}" name="livres_prix_de_vente"/>
-    <tableColumn id="5" xr3:uid="{1507E326-94AC-4B7A-BDED-74EBED50A4AF}" name="editions_id"/>
+    <tableColumn id="5" xr3:uid="{1507E326-94AC-4B7A-BDED-74EBED50A4AF}" name="editions_id" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{35871211-CC16-4B64-B6E5-8F4B577E5BBC}" name="editions _datees"/>
     <tableColumn id="7" xr3:uid="{81EC7A9E-3285-40F3-884B-CEEA394E4190}" name="editions_nombre"/>
     <tableColumn id="8" xr3:uid="{E3853130-EC5F-4E84-8A46-BA1C1F72D9EC}" name="editions_exemplaire"/>
@@ -500,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B47415-7A5C-4F37-9A5C-D772689F3E36}">
-  <dimension ref="B2:T20"/>
+  <dimension ref="B2:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +600,7 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
@@ -590,83 +648,87 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="J12">
         <v>1</v>
       </c>
@@ -675,27 +737,31 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
+      <c r="F13" s="1"/>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="N15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="N16">
         <v>1</v>
       </c>
@@ -704,11 +770,13 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
+      <c r="F18" s="1"/>
       <c r="Q18">
         <v>1</v>
       </c>
@@ -717,12 +785,23 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
+      <c r="F20" s="1"/>
       <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="S21">
         <v>1</v>
       </c>
     </row>
